--- a/src/test/resources/2007WithModelMultipleSheet.xlsx
+++ b/src/test/resources/2007WithModelMultipleSheet.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="33740" yWindow="320" windowWidth="20340" windowHeight="18080" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="4294967295" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>表格 1</t>
   </si>
@@ -52,6 +47,9 @@
     <t>借款人名称</t>
   </si>
   <si>
+    <t>呵呵哒</t>
+  </si>
+  <si>
     <t>深圳市祥合鑫科技有限公司</t>
   </si>
   <si>
@@ -67,23 +65,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -95,25 +96,167 @@
       <sz val="12"/>
       <color indexed="15"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="11"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +281,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -321,6 +650,115 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -329,71 +767,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,50 +779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="10"/>
@@ -462,21 +791,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right/>
@@ -507,6 +821,21 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,34 +852,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="38">
@@ -558,34 +1105,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,99 +1144,138 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00DD0806"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00000000"/>
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00AAAAAA"/>
@@ -748,6 +1334,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -759,7 +1350,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1054,20 +1645,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr wrap="none" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1">
         <a:spAutoFit/>
@@ -1100,20 +1677,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
       </a:spPr>
       <a:bodyPr wrap="none" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1">
         <a:spAutoFit/>
@@ -1121,41 +1684,40 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="16.8285714285714" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.83203125" style="1"/>
+    <col min="1" max="9" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.8285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:9" ht="23" customHeight="1">
+    <row r="2" ht="23" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
+    <row r="3" ht="21" customHeight="1" spans="1:9">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1203,535 +1765,533 @@
       <c r="F3" s="14">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
-        <v>41242</v>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="H3" s="16">
         <v>12</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1">
-      <c r="A4" s="18">
+      <c r="I3" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:9">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>6666</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>41243</v>
       </c>
-      <c r="D4" s="21">
-        <v>753578.16599999997</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="D4" s="20">
+        <v>753578.166</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="22">
         <v>1</v>
       </c>
       <c r="G4" s="15">
         <v>41243</v>
       </c>
-      <c r="H4" s="24">
-        <v>12</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1">
-      <c r="A5" s="18">
+      <c r="H4" s="23">
+        <v>12</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:9">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>431214</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>41244</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>3452</v>
       </c>
-      <c r="E5" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="E5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="22">
         <v>2</v>
       </c>
       <c r="G5" s="15">
         <v>41244</v>
       </c>
-      <c r="H5" s="24">
-        <v>12</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1">
-      <c r="A6" s="18">
+      <c r="H5" s="23">
+        <v>12</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>431214</v>
       </c>
-      <c r="C6" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D6" s="20">
         <v>8567</v>
       </c>
-      <c r="E6" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="22">
         <v>6</v>
       </c>
       <c r="G6" s="15">
         <v>41247</v>
       </c>
-      <c r="H6" s="24">
-        <v>12</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.5" customHeight="1">
-      <c r="A7" s="18">
+      <c r="H6" s="23">
+        <v>12</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="20.5" customHeight="1" spans="1:9">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>431214</v>
       </c>
-      <c r="C7" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D7" s="20">
         <v>7123</v>
       </c>
-      <c r="E7" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="22">
         <v>13</v>
       </c>
       <c r="G7" s="15">
         <v>41247</v>
       </c>
-      <c r="H7" s="24">
-        <v>12</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A8" s="18">
+      <c r="H7" s="23">
+        <v>12</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>431214</v>
       </c>
-      <c r="C8" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D8" s="20">
         <v>6000</v>
       </c>
-      <c r="E8" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="E8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="22">
         <v>4</v>
       </c>
       <c r="G8" s="15">
         <v>41247</v>
       </c>
-      <c r="H8" s="24">
-        <v>12</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A9" s="18">
+      <c r="H8" s="23">
+        <v>12</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>431214</v>
       </c>
-      <c r="C9" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D9" s="20">
         <v>50000</v>
       </c>
-      <c r="E9" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="E9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="22">
         <v>3</v>
       </c>
       <c r="G9" s="15">
         <v>41247</v>
       </c>
-      <c r="H9" s="24">
-        <v>12</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A10" s="18">
+      <c r="H9" s="23">
+        <v>12</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>431214</v>
       </c>
-      <c r="C10" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D10" s="20">
         <v>120000</v>
       </c>
-      <c r="E10" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="22">
         <v>1</v>
       </c>
       <c r="G10" s="15">
         <v>41247</v>
       </c>
-      <c r="H10" s="24">
-        <v>12</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A11" s="18">
+      <c r="H10" s="23">
+        <v>12</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C11" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D11" s="20">
         <v>1234</v>
       </c>
-      <c r="E11" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="22">
         <v>2</v>
       </c>
       <c r="G11" s="15">
         <v>41247</v>
       </c>
-      <c r="H11" s="24">
-        <v>12</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="23">
+        <v>12</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24">
+        <v>3695064866</v>
+      </c>
+      <c r="C12" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D12" s="20">
+        <v>122</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H12" s="23">
+        <v>12</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24">
+        <v>3695064866</v>
+      </c>
+      <c r="C13" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D13" s="20">
+        <v>781115.19</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H13" s="23">
+        <v>12</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24">
+        <v>3695064866</v>
+      </c>
+      <c r="C14" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D14" s="20">
+        <v>781115.19</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H14" s="23">
+        <v>12</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A12" s="18">
-        <v>10</v>
-      </c>
-      <c r="B12" s="26">
+      <c r="B15" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C12" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D12" s="21">
-        <v>122</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="C15" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D15" s="20">
+        <v>781115.19</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H12" s="24">
-        <v>12</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26">
+      <c r="G15" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H15" s="23">
+        <v>12</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A16" s="17">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C13" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C16" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D16" s="20">
         <v>781115.19</v>
       </c>
-      <c r="E13" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="E16" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H13" s="24">
-        <v>12</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A14" s="18">
-        <v>12</v>
-      </c>
-      <c r="B14" s="26">
+      <c r="G16" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H16" s="23">
+        <v>12</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A17" s="17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C14" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C17" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D17" s="20">
         <v>781115.19</v>
       </c>
-      <c r="E14" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E17" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H14" s="24">
-        <v>12</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A15" s="18">
-        <v>13</v>
-      </c>
-      <c r="B15" s="26">
+      <c r="G17" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H17" s="23">
+        <v>12</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C15" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C18" s="26">
+        <v>41247</v>
+      </c>
+      <c r="D18" s="27">
         <v>781115.19</v>
       </c>
-      <c r="E15" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="23">
+      <c r="E18" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="22">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H15" s="24">
-        <v>12</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A16" s="18">
+      <c r="G18" s="28">
+        <v>41247</v>
+      </c>
+      <c r="H18" s="23">
+        <v>12</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26">
-        <v>3695064866</v>
-      </c>
-      <c r="C16" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D16" s="21">
-        <v>781115.19</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H16" s="24">
-        <v>12</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A17" s="18">
-        <v>15</v>
-      </c>
-      <c r="B17" s="26">
-        <v>3695064866</v>
-      </c>
-      <c r="C17" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D17" s="21">
-        <v>781115.19</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H17" s="24">
-        <v>12</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A18" s="18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="26">
-        <v>3695064866</v>
-      </c>
-      <c r="C18" s="28">
-        <v>41247</v>
-      </c>
-      <c r="D18" s="29">
-        <v>781115.19</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30">
-        <v>41247</v>
-      </c>
-      <c r="H18" s="24">
-        <v>12</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+    </row>
+    <row r="19" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A19" s="17"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A21" s="17"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A22" s="17"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A23" s="17"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777779102325439" footer="0.27777779102325439"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="7" max="7" width="19.2857142857143" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="23" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +2320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1785,452 +2345,447 @@
       <c r="H2" s="16">
         <v>12</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="18">
+      <c r="I2" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>6666</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>41243</v>
       </c>
-      <c r="D3" s="21">
-        <v>753578.16599999997</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="23">
+      <c r="D3" s="20">
+        <v>753578.166</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="22">
         <v>1</v>
       </c>
       <c r="G3" s="15">
         <v>41243</v>
       </c>
-      <c r="H3" s="24">
-        <v>12</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="18">
+      <c r="H3" s="23">
+        <v>12</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>431214</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>41244</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>3452</v>
       </c>
-      <c r="E4" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="22">
         <v>2</v>
       </c>
       <c r="G4" s="15">
         <v>41244</v>
       </c>
-      <c r="H4" s="24">
-        <v>12</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="18">
+      <c r="H4" s="23">
+        <v>12</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>431214</v>
       </c>
-      <c r="C5" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D5" s="20">
         <v>8567</v>
       </c>
-      <c r="E5" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="23">
+      <c r="E5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="22">
         <v>6</v>
       </c>
       <c r="G5" s="15">
         <v>41247</v>
       </c>
-      <c r="H5" s="24">
-        <v>12</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="20.5" customHeight="1">
-      <c r="A6" s="18">
+      <c r="H5" s="23">
+        <v>12</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="20.5" customHeight="1" spans="1:9">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>431214</v>
       </c>
-      <c r="C6" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D6" s="20">
         <v>7123</v>
       </c>
-      <c r="E6" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="E6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="22">
         <v>13</v>
       </c>
       <c r="G6" s="15">
         <v>41247</v>
       </c>
-      <c r="H6" s="24">
-        <v>12</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A7" s="18">
+      <c r="H6" s="23">
+        <v>12</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>431214</v>
       </c>
-      <c r="C7" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D7" s="20">
         <v>6000</v>
       </c>
-      <c r="E7" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="22">
         <v>4</v>
       </c>
       <c r="G7" s="15">
         <v>41247</v>
       </c>
-      <c r="H7" s="24">
-        <v>12</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="H7" s="23">
+        <v>12</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A8" s="17">
+        <v>7.4</v>
+      </c>
+      <c r="B8" s="18">
         <v>431214</v>
       </c>
-      <c r="C8" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D8" s="20">
         <v>50000</v>
       </c>
-      <c r="E8" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="23">
+      <c r="E8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="22">
         <v>3</v>
       </c>
       <c r="G8" s="15">
         <v>41247</v>
       </c>
-      <c r="H8" s="24">
-        <v>12</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="18">
+      <c r="H8" s="23">
+        <v>12</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>431214</v>
       </c>
-      <c r="C9" s="20">
-        <v>41247</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9" s="19">
+        <v>41247</v>
+      </c>
+      <c r="D9" s="20">
         <v>120000</v>
       </c>
-      <c r="E9" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F9" s="23">
+      <c r="E9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="22">
         <v>1</v>
       </c>
       <c r="G9" s="15">
         <v>41247</v>
       </c>
-      <c r="H9" s="24">
-        <v>12</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A10" s="18">
+      <c r="H9" s="23">
+        <v>12</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C10" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D10" s="20">
         <v>1234</v>
       </c>
-      <c r="E10" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="23">
+      <c r="E10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="22">
         <v>2</v>
       </c>
       <c r="G10" s="15">
         <v>41247</v>
       </c>
-      <c r="H10" s="24">
-        <v>12</v>
-      </c>
-      <c r="I10" s="25" t="s">
+      <c r="H10" s="23">
+        <v>12</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24">
+        <v>3695064866</v>
+      </c>
+      <c r="C11" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D11" s="20">
+        <v>122</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H11" s="23">
+        <v>12</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24">
+        <v>3695064866</v>
+      </c>
+      <c r="C12" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D12" s="20">
+        <v>781115.19</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H12" s="23">
+        <v>12</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24">
+        <v>3695064866</v>
+      </c>
+      <c r="C13" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D13" s="20">
+        <v>781115.19</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H13" s="23">
+        <v>12</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="B14" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C11" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D11" s="21">
-        <v>122</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="C14" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D14" s="20">
+        <v>781115.19</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="22">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H11" s="24">
-        <v>12</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A12" s="18">
-        <v>11</v>
-      </c>
-      <c r="B12" s="26">
+      <c r="G14" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H14" s="23">
+        <v>12</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C12" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D12" s="21">
+      <c r="C15" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D15" s="20">
         <v>781115.19</v>
       </c>
-      <c r="E12" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="E15" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="22">
         <v>1</v>
       </c>
-      <c r="G12" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H12" s="24">
-        <v>12</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="26">
+      <c r="G15" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H15" s="23">
+        <v>12</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A16" s="17">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C13" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C16" s="25">
+        <v>41247</v>
+      </c>
+      <c r="D16" s="20">
         <v>781115.19</v>
       </c>
-      <c r="E13" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F13" s="23">
+      <c r="E16" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H13" s="24">
-        <v>12</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="26">
+      <c r="G16" s="15">
+        <v>41247</v>
+      </c>
+      <c r="H16" s="23">
+        <v>12</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24">
         <v>3695064866</v>
       </c>
-      <c r="C14" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C17" s="26">
+        <v>41247</v>
+      </c>
+      <c r="D17" s="27">
         <v>781115.19</v>
       </c>
-      <c r="E14" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="E17" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="22">
         <v>1</v>
       </c>
-      <c r="G14" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H14" s="24">
-        <v>12</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="18">
+      <c r="G17" s="28">
+        <v>41247</v>
+      </c>
+      <c r="H17" s="23">
+        <v>12</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="26">
-        <v>3695064866</v>
-      </c>
-      <c r="C15" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D15" s="21">
-        <v>781115.19</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="23">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H15" s="24">
-        <v>12</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="26">
-        <v>3695064866</v>
-      </c>
-      <c r="C16" s="27">
-        <v>41247</v>
-      </c>
-      <c r="D16" s="21">
-        <v>781115.19</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="23">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>41247</v>
-      </c>
-      <c r="H16" s="24">
-        <v>12</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A17" s="18">
-        <v>16</v>
-      </c>
-      <c r="B17" s="26">
-        <v>3695064866</v>
-      </c>
-      <c r="C17" s="28">
-        <v>41247</v>
-      </c>
-      <c r="D17" s="29">
-        <v>781115.19</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="23">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30">
-        <v>41247</v>
-      </c>
-      <c r="H17" s="24">
-        <v>12</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>